--- a/data/output/results/results_linear_combination.xlsx
+++ b/data/output/results/results_linear_combination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\VS Code\WebDataProject\data\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C56B46-763E-495B-A839-EF51A274A30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B71E2E-8828-48C4-8425-1C8DE5EF6E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{30AB2D51-806F-4434-81F8-733D20158AF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -76,28 +76,10 @@
     <t>p+-</t>
   </si>
   <si>
-    <t>SNB String 30</t>
-  </si>
-  <si>
     <t>TraiSet</t>
   </si>
   <si>
-    <t>Class 1 :
-4.58 +
-[[4] BookTitleComparatorPreprocessedJaccard] * -4.77 +
-[[3] BookTitleComparatorPreprocessedEqual] * 0.89 +
-[[11] BookAuthorComparatorJaccard] * -1 +
-[[6] BookTitleComparatorJaroWinkler] * -5.94 +
-[[2] BookTitleComparatorLevenshtein] * -1.07 +
-[[8] BookTitleComparatorSmithWaterman] * -0.01 +
-[[10] BookAuthorComparatorPreprocessedJaccard] * -0.16 +
-[[5] BookTitleComparatorPreprocessedLevenshtein] * 7.84</t>
-  </si>
-  <si>
     <t>RedRatio</t>
-  </si>
-  <si>
-    <t>0:04:38.486</t>
   </si>
   <si>
     <t>TEq</t>
@@ -199,6 +181,12 @@
   </si>
   <si>
     <t>0:00:07.894</t>
+  </si>
+  <si>
+    <t>0:00:48.737</t>
+  </si>
+  <si>
+    <t>0:00:35.514</t>
   </si>
 </sst>
 </file>
@@ -252,7 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="83">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -369,12 +357,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -522,60 +504,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{911E2576-8522-44C0-BCC3-5C312CB23CEF}" name="Tabelle48" displayName="Tabelle48" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{911E2576-8522-44C0-BCC3-5C312CB23CEF}" name="Tabelle48" displayName="Tabelle48" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:U1048576" xr:uid="{EFB900FC-E7FD-4C54-92DB-310147D0E881}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{9A449D20-EF5D-43DD-9923-060E7B0851F9}" name="Kurzbeschreibung" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{80260EC4-C5A1-4F31-9626-44D4C43454AF}" name="TEq" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{F9886828-7973-4E9E-8FDB-6DFFAFE757C3}" name="TJacc" dataDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{4BC10426-7F50-4A9D-836D-8C85C364023D}" name="TLev" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{BE5FC9F9-D281-45A6-AFDC-A44BE288566A}" name="TIDF" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{6B8833B7-263F-4461-BDEF-724568F47153}" name="TJaro" dataDxfId="77"/>
-    <tableColumn id="12" xr3:uid="{00F1407E-3142-4ADE-B398-4FFC563E2B51}" name="TJW" dataDxfId="76"/>
-    <tableColumn id="17" xr3:uid="{BE9273B7-96A3-4B9A-8DF6-549C2CD046E0}" name="TSW" dataDxfId="75"/>
-    <tableColumn id="18" xr3:uid="{42847779-7F6B-4C35-9183-654FE5FF4478}" name="TME" dataDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{BE08D352-42A7-4E47-9F3F-C2465EC13BB3}" name="AJacc" dataDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{B2586606-3E44-4A05-8E7D-5FC73E5E60E5}" name="ALev" dataDxfId="72"/>
-    <tableColumn id="21" xr3:uid="{8B2F02EF-2B5D-49A0-8FCD-4F6F554BE93C}" name="AJaro" dataDxfId="71"/>
-    <tableColumn id="22" xr3:uid="{95BFE03B-9849-43CC-8D26-F56D7C4A4043}" name="AJW" dataDxfId="70"/>
-    <tableColumn id="23" xr3:uid="{D564553D-95AC-4575-AB14-6002BD3FF6D6}" name="AME" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{91C86056-8BF1-42AF-BAE2-F97AD4F4DBA8}" name="Blocking" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{1FCDED5D-F851-4551-82E1-E476E24C7304}" name="finalThreshold" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{C4FE34CD-62AD-4796-BAFE-ED66DF8C11DE}" name="RedRatio" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{96051D4E-E782-4364-BC2A-FB71F1E20F5B}" name="Laufzeit" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{44AE651D-CCA2-4A27-B902-1DC28CF69F03}" name="Precision" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{83F2D22D-7761-46F2-868F-BED983E2598E}" name="Recall" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{615AC6A8-8F73-4F8F-8CC8-E76A3F74047B}" name="F1" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{9A449D20-EF5D-43DD-9923-060E7B0851F9}" name="Kurzbeschreibung" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{80260EC4-C5A1-4F31-9626-44D4C43454AF}" name="TEq" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{F9886828-7973-4E9E-8FDB-6DFFAFE757C3}" name="TJacc" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{4BC10426-7F50-4A9D-836D-8C85C364023D}" name="TLev" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{BE5FC9F9-D281-45A6-AFDC-A44BE288566A}" name="TIDF" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{6B8833B7-263F-4461-BDEF-724568F47153}" name="TJaro" dataDxfId="75"/>
+    <tableColumn id="12" xr3:uid="{00F1407E-3142-4ADE-B398-4FFC563E2B51}" name="TJW" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{BE9273B7-96A3-4B9A-8DF6-549C2CD046E0}" name="TSW" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{42847779-7F6B-4C35-9183-654FE5FF4478}" name="TME" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{BE08D352-42A7-4E47-9F3F-C2465EC13BB3}" name="AJacc" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{B2586606-3E44-4A05-8E7D-5FC73E5E60E5}" name="ALev" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{8B2F02EF-2B5D-49A0-8FCD-4F6F554BE93C}" name="AJaro" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{95BFE03B-9849-43CC-8D26-F56D7C4A4043}" name="AJW" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{D564553D-95AC-4575-AB14-6002BD3FF6D6}" name="AME" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{91C86056-8BF1-42AF-BAE2-F97AD4F4DBA8}" name="Blocking" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{1FCDED5D-F851-4551-82E1-E476E24C7304}" name="finalThreshold" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{C4FE34CD-62AD-4796-BAFE-ED66DF8C11DE}" name="RedRatio" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{96051D4E-E782-4364-BC2A-FB71F1E20F5B}" name="Laufzeit" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{44AE651D-CCA2-4A27-B902-1DC28CF69F03}" name="Precision" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{83F2D22D-7761-46F2-868F-BED983E2598E}" name="Recall" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{615AC6A8-8F73-4F8F-8CC8-E76A3F74047B}" name="F1" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFB900FC-E7FD-4C54-92DB-310147D0E881}" name="Tabelle4" displayName="Tabelle4" ref="A1:AA1048576" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:AA1048576" xr:uid="{EFB900FC-E7FD-4C54-92DB-310147D0E881}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{984DB0C4-F125-4AD8-BA6B-DFA4355BA94F}" name="Kurzbeschreibung" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{20787FF6-86EA-4FA5-81B4-71210AE17080}" name="TEq" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{E60F5B8B-6C74-4FCF-91D7-2CD571FA3D47}" name="TJacc" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{2DF062E9-71C8-4C57-AFA6-9A7F2A05B01E}" name="TLev" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{AB0A4BDB-750C-4DEE-A18F-C5C74FBF7CBE}" name="TIDF" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{B0A6ECB1-E40A-4FA4-984B-4D15F6665EA2}" name="TJaro" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{86BB775B-D7B9-4DEC-812F-1801AEA898D4}" name="TJW" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{B85AE136-61A1-4409-A05A-FB83E429A805}" name="TSW" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{9A2CBF10-F79E-4C7F-9D01-6CDCD6ED809F}" name="TME" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{42995688-2C69-4700-8481-D7403B927FE4}" name="AJacc" dataDxfId="50"/>
-    <tableColumn id="20" xr3:uid="{3EF6EE55-7438-4D62-9022-C6F8B2A4C5C6}" name="ALev" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{B8A81252-8E3F-41B0-8A0E-1289BD2273D6}" name="AJaro" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{95E62EEB-2FCF-4BFB-BD86-93B5F169CC4E}" name="AJW" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{96692E27-467D-4652-8DC6-4EDF66996934}" name="AME" dataDxfId="46"/>
-    <tableColumn id="25" xr3:uid="{57FB89EA-965A-42C7-B655-EFE282941E57}" name="GJacc" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{B7034EE0-CD71-4AE7-9C5B-D5C966D64C97}" name="REucl" dataDxfId="44"/>
-    <tableColumn id="26" xr3:uid="{DBBB1DA6-1605-4015-AE27-279B32171388}" name="RMan" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{40957401-40E3-486C-A03B-02EB0C5FF500}" name="Blocking" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{A4064A98-9BE5-4CE9-A3E4-76CEF3A41A7E}" name="finalThreshold" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{BD5C3BA8-9874-4B29-828E-0BC28A95C02E}" name="modelType" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{0A7F8DF5-8A5C-418E-81F9-46CFE51EE589}" name="TraiSet" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFB900FC-E7FD-4C54-92DB-310147D0E881}" name="Tabelle4" displayName="Tabelle4" ref="A1:Y1048576" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:Y1048576" xr:uid="{EFB900FC-E7FD-4C54-92DB-310147D0E881}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{984DB0C4-F125-4AD8-BA6B-DFA4355BA94F}" name="Kurzbeschreibung" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{20787FF6-86EA-4FA5-81B4-71210AE17080}" name="TEq" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{E60F5B8B-6C74-4FCF-91D7-2CD571FA3D47}" name="TJacc" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{2DF062E9-71C8-4C57-AFA6-9A7F2A05B01E}" name="TLev" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{AB0A4BDB-750C-4DEE-A18F-C5C74FBF7CBE}" name="TIDF" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{B0A6ECB1-E40A-4FA4-984B-4D15F6665EA2}" name="TJaro" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{86BB775B-D7B9-4DEC-812F-1801AEA898D4}" name="TJW" dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{B85AE136-61A1-4409-A05A-FB83E429A805}" name="TSW" dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{9A2CBF10-F79E-4C7F-9D01-6CDCD6ED809F}" name="TME" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{42995688-2C69-4700-8481-D7403B927FE4}" name="AJacc" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{3EF6EE55-7438-4D62-9022-C6F8B2A4C5C6}" name="ALev" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{B8A81252-8E3F-41B0-8A0E-1289BD2273D6}" name="AJaro" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{95E62EEB-2FCF-4BFB-BD86-93B5F169CC4E}" name="AJW" dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{96692E27-467D-4652-8DC6-4EDF66996934}" name="AME" dataDxfId="44"/>
+    <tableColumn id="25" xr3:uid="{57FB89EA-965A-42C7-B655-EFE282941E57}" name="GJacc" dataDxfId="43"/>
+    <tableColumn id="24" xr3:uid="{B7034EE0-CD71-4AE7-9C5B-D5C966D64C97}" name="REucl" dataDxfId="42"/>
+    <tableColumn id="26" xr3:uid="{DBBB1DA6-1605-4015-AE27-279B32171388}" name="RMan" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{40957401-40E3-486C-A03B-02EB0C5FF500}" name="Blocking" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{A4064A98-9BE5-4CE9-A3E4-76CEF3A41A7E}" name="finalThreshold" dataDxfId="39"/>
     <tableColumn id="27" xr3:uid="{B6AC362D-211C-4EC0-9098-172BA4569854}" name="RedRatio" dataDxfId="38"/>
     <tableColumn id="10" xr3:uid="{0463B6E8-B83D-4F4A-AF5F-B8655D3414A5}" name="Laufzeit" dataDxfId="37"/>
     <tableColumn id="6" xr3:uid="{06F7F68F-F8C8-4054-8DAF-C1BD36BFA73F}" name="Precision" dataDxfId="36"/>
@@ -924,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2438B34D-286C-4535-84FF-1F263F006FB3}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,43 +938,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
@@ -1003,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -1041,7 +1021,7 @@
         <v>0.99991521007530204</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S2" s="1">
         <v>0.875</v>
@@ -1064,7 +1044,7 @@
         <v>0.99991521007530204</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S3" s="1">
         <v>0.58430000000000004</v>
@@ -1087,7 +1067,7 @@
         <v>0.99991521007530204</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S4" s="1">
         <v>0.58430000000000004</v>
@@ -1110,7 +1090,7 @@
         <v>0.99991521007530204</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S5" s="1">
         <v>0.4945</v>
@@ -1120,6 +1100,52 @@
       </c>
       <c r="U5" s="1">
         <v>0.37040000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.99991521007530204</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.60129999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.99991521007530204</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.61009999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D980BE-ACF9-443A-81B5-F4AB23596DA5}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,66 +1185,64 @@
     <col min="17" max="17" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
-    <col min="24" max="26" width="11.42578125" style="1"/>
-    <col min="27" max="27" width="55.42578125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="55.42578125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
@@ -1227,109 +1251,43 @@
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.99944443380141301</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.8276</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,64 +1345,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>1</v>
@@ -1456,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
@@ -1539,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W2" s="1">
         <v>0.5</v>
@@ -1554,7 +1512,7 @@
         <v>0.99990288541264105</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="1">
         <v>0.95650000000000002</v>
@@ -1566,7 +1524,7 @@
         <v>0.83020000000000005</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
